--- a/Inputs_Data_largePlans/88_OH_OH-STRS.xlsx
+++ b/Inputs_Data_largePlans/88_OH_OH-STRS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_largePlans_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_Data_largePlans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6360" tabRatio="886" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6360" tabRatio="886" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="42" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="DisbRates_raw" sheetId="41" r:id="rId21"/>
     <sheet name="MortalityInfo" sheetId="30" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterate="1" iterateDelta="9.9999999999994451E-4" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25911,10 +25911,10 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
